--- a/medicine/Enfance/Matt_de_la_Peña/Matt_de_la_Peña.xlsx
+++ b/medicine/Enfance/Matt_de_la_Peña/Matt_de_la_Peña.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Matt_de_la_Pe%C3%B1a</t>
+          <t>Matt_de_la_Peña</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Matt de la Peña, né à National City en Californie, est un romancier et nouvelliste américain de science-fiction et de fantasy.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Matt_de_la_Pe%C3%B1a</t>
+          <t>Matt_de_la_Peña</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Matt_de_la_Pe%C3%B1a</t>
+          <t>Matt_de_la_Peña</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,24 +553,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Les Vivants
-Les Vivants, Robert Laffont, coll. « R », 2014 ((en) The Living, 2013), trad. Magali Duez, 381 p.  (ISBN 978-2-221-13933-2)
-Les Proies, Robert Laffont, coll. « R », 2016 ((en) The Hunted, 2015), trad. Emmanuel Pahla, 423 p.  (ISBN 978-2-221-13934-9)
-Série Infinity Ring
-Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : James Dashner (tomes 1 et 7), Carrie Ryan (tome 2), Lisa McMann (en) (tome 3), Matthew J. Kirby (en) (tome 5) et Jennifer A. Nielsen (en) (tome 6).
- (en) Curse of the Ancients, 2013
- (en) Eternity, 2014
-Romans indépendants
-(en) Ball Don't Lie, 2005
-(en) Mexican WhiteBoy, 2008
-(en) We Were Here, 2009
-(en) I Will Save You, 2010
-Superman : Dawnbreaker, Bayard jeunesse, 2019 ((en) Superman: Dawnbreaker, 2019), trad. Emmanuelle Debon, 399 p.  (ISBN 978-2-7470-8846-6)
-Livres illustrés pour enfants
-(en) A Nation's Hope-The Story of Boxing Legend Joe Louis, 2010
-Terminus [« Last Stop on Market Street »]  (trad. de l'anglais par Ilona Meyer, ill. Christian Robinson), Les Éléphants, 2016, 31 p. (ISBN 978-2-37273-027-3)Médaille Newbery 2016
-(en) Love, 2018
-(en) Carmela Full of Wishes, 2018</t>
+          <t>Série Les Vivants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Vivants, Robert Laffont, coll. « R », 2014 ((en) The Living, 2013), trad. Magali Duez, 381 p.  (ISBN 978-2-221-13933-2)
+Les Proies, Robert Laffont, coll. « R », 2016 ((en) The Hunted, 2015), trad. Emmanuel Pahla, 423 p.  (ISBN 978-2-221-13934-9)</t>
         </is>
       </c>
     </row>
@@ -566,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Matt_de_la_Pe%C3%B1a</t>
+          <t>Matt_de_la_Peña</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,15 +585,134 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Infinity Ring</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : James Dashner (tomes 1 et 7), Carrie Ryan (tome 2), Lisa McMann (en) (tome 3), Matthew J. Kirby (en) (tome 5) et Jennifer A. Nielsen (en) (tome 6).
+ (en) Curse of the Ancients, 2013
+ (en) Eternity, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Matt_de_la_Peña</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matt_de_la_Pe%C3%B1a</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Ball Don't Lie, 2005
+(en) Mexican WhiteBoy, 2008
+(en) We Were Here, 2009
+(en) I Will Save You, 2010
+Superman : Dawnbreaker, Bayard jeunesse, 2019 ((en) Superman: Dawnbreaker, 2019), trad. Emmanuelle Debon, 399 p.  (ISBN 978-2-7470-8846-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Matt_de_la_Peña</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matt_de_la_Pe%C3%B1a</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres illustrés pour enfants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) A Nation's Hope-The Story of Boxing Legend Joe Louis, 2010
+Terminus [« Last Stop on Market Street »]  (trad. de l'anglais par Ilona Meyer, ill. Christian Robinson), Les Éléphants, 2016, 31 p. (ISBN 978-2-37273-027-3)Médaille Newbery 2016
+(en) Love, 2018
+(en) Carmela Full of Wishes, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Matt_de_la_Peña</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matt_de_la_Pe%C3%B1a</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2016 :
 Médaille Newbery pour Terminus, illustré par Christian Robinson
 Finaliste Caldecott Honor pour Terminus, pour les illustrations de Christian Robinson
-2018 : (international) « Honour List »[1] de l' IBBY pour Terminus</t>
+2018 : (international) « Honour List » de l' IBBY pour Terminus</t>
         </is>
       </c>
     </row>
